--- a/پایان نامه/جدول مقالات .xlsx
+++ b/پایان نامه/جدول مقالات .xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aref/Documents/پایان نامه/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aref/Git/university/پایان نامه/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D761F5AC-8707-F34F-ADE4-870C13A73BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E9EB26D-CE76-4047-9F95-24F4B3215144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="3" xr2:uid="{9CC739CB-ABB6-7B40-A4F3-3E1B0036033A}"/>
   </bookViews>
@@ -5940,8 +5940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFFCF9F0-4546-8C4E-AF1F-707720A43176}">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="77" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45:H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.6640625" defaultRowHeight="23" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7213,10 +7213,10 @@
       <c r="F40" s="40" t="s">
         <v>500</v>
       </c>
-      <c r="G40" s="40" t="s">
+      <c r="G40" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="H40" s="40"/>
+      <c r="H40" s="43"/>
       <c r="I40" s="40" t="s">
         <v>414</v>
       </c>
@@ -7279,10 +7279,10 @@
       <c r="F42" s="40" t="s">
         <v>509</v>
       </c>
-      <c r="G42" s="40" t="s">
+      <c r="G42" s="42" t="s">
         <v>510</v>
       </c>
-      <c r="H42" s="40"/>
+      <c r="H42" s="43"/>
       <c r="I42" s="40" t="s">
         <v>425</v>
       </c>
@@ -7378,10 +7378,10 @@
       <c r="F45" s="40" t="s">
         <v>521</v>
       </c>
-      <c r="G45" s="40" t="s">
+      <c r="G45" s="42" t="s">
         <v>522</v>
       </c>
-      <c r="H45" s="40"/>
+      <c r="H45" s="43"/>
       <c r="I45" s="40" t="s">
         <v>442</v>
       </c>
@@ -7462,9 +7462,10 @@
       <c r="J48" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="17">
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
     <mergeCell ref="G46:H46"/>
     <mergeCell ref="G47:H47"/>
     <mergeCell ref="G32:H32"/>
@@ -7475,7 +7476,9 @@
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
     <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
     <mergeCell ref="K2:K12"/>
   </mergeCells>
   <hyperlinks>
